--- a/data/trans_camb/P6905-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6905-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,45; -16,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,86; 17,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,96; -16,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,92; 9,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,75; 17,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,31; 29,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,23; -0,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,69; 12,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,29; 22,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,31%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-83,53; 99,45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,35; 29,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,82; 40,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,63; 69,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,33; 8,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,34; 50,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,72; 73,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 10,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,92; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,12; 24,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 9,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,12; 18,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,9; 18,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 7,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,45; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,61; 17,42</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,9; 36,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,65; 19,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,13; 82,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,45; 27,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,36; 49,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,52; 50,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,83; 20,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,49; 19,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 51,25</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 12,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,64; 14,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; 4,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 29,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,43; 16,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; 6,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 16,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 10,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,5; 3,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,5; 56,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,22; 67,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,83; 25,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 105,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,99; 59,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,45; 25,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,79; 69,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 40,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,65; 15,22</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,45; 7,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 12,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,63; 0,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,8; 23,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 24,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,57; 18,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 9,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 14,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 8,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,48%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,04; 37,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,48; 52,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,62; 5,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,71; 115,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,1; 115,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,05; 86,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; 38,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,08; 59,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,05; 37,36</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 11,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,55; 18,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 7,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,47; 38,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,91; 45,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,34; 15,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 14,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 23,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 6,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,51%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,17; 68,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,5; 100,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,46; 41,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,45; 274,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,98; 268,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,73; 108,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,77; 64,51</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,89; 105,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,3; 31,67</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-100,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-82,59</t>
         </is>
       </c>
     </row>
@@ -1823,42 +1823,42 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,59%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 2,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 3,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,16; -0,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 9,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 11,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 3,34</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 4,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,47; 3,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 0,06</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,53%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,25%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,62%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,63; 8,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,6; 12,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,02; -2,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 26,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,72; 32,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 10,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,6; 14,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; 12,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6905-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>-16,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-7,53</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,31; 29,15</t>
+          <t>-50,7; 27,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 22,86</t>
+          <t>-33,06; 21,69</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,56%</t>
+          <t>-28,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>-20,31%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,63; 69,35</t>
+          <t>-80,91; 68,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,72; 73,99</t>
+          <t>-80,4; 69,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>5,11</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 24,95</t>
+          <t>-11,48; 27,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 18,56</t>
+          <t>-17,19; 19,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 17,42</t>
+          <t>-6,58; 19,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,65%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 82,7</t>
+          <t>-31,76; 91,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 50,8</t>
+          <t>-34,19; 54,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 51,25</t>
+          <t>-16,48; 57,55</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-6,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,45</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-5,64</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 4,84</t>
+          <t>-19,55; 4,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 6,93</t>
+          <t>-22,05; 7,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 3,87</t>
+          <t>-14,66; 3,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,04%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,73%</t>
+          <t>-18,71%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,83; 25,45</t>
+          <t>-58,36; 23,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 25,11</t>
+          <t>-47,52; 25,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 15,22</t>
+          <t>-40,87; 15,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-5,22</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 0,75</t>
+          <t>-21,99; 0,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 18,58</t>
+          <t>-29,95; 13,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 8,49</t>
+          <t>-17,3; 4,76</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,46%</t>
+          <t>-36,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>-12,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-17,25%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,62; 5,24</t>
+          <t>-62,03; 6,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 86,28</t>
+          <t>-60,52; 60,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 37,36</t>
+          <t>-49,42; 17,4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-5,83</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 7,88</t>
+          <t>-23,65; 7,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 15,08</t>
+          <t>-36,97; 15,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 6,44</t>
+          <t>-19,1; 6,28</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-27,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-19,67%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 41,55</t>
+          <t>-64,74; 40,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,73; 108,12</t>
+          <t>-61,44; 107,69</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 31,67</t>
+          <t>-48,28; 31,22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-82,59</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-82,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-9,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-15,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-4,06</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,88</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-7,2</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-8,66</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-5,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,93; 2,39</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 3,3</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; -0,11</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-10,16; 9,7</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 11,88</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; 0,16</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 4,38</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 3,96</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; -0,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-9,59%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-23,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-21,15%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-4,66%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-17,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-33,63; 8,85</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-28,6; 12,35</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-43,02; -2,96</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-42,68; -0,51</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-22,32; 26,44</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-17,72; 32,49</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-31,98; 10,06</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-42,09; 0,35</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-19,6; 14,44</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-18,03; 12,94</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-27,33; 0,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-33,76; -2,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6905-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6905-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,45; -16,43</t>
+          <t>-42,83; -16,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 17,44</t>
+          <t>-29,48; 21,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,96; -16,39</t>
+          <t>-43,18; -16,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-62,92; 9,83</t>
+          <t>-56,98; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 17,82</t>
+          <t>-49,7; 18,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 27,92</t>
+          <t>-57,33; 27,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,23; -0,06</t>
+          <t>-37,97; 0,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 12,54</t>
+          <t>-28,11; 12,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 21,69</t>
+          <t>-30,78; 25,56</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,53; 99,45</t>
+          <t>-83,59; 118,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,35; 29,99</t>
+          <t>-85,94; 33,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,82; 40,25</t>
+          <t>-75,59; 47,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 68,07</t>
+          <t>-84,17; 58,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,33; 8,13</t>
+          <t>-88,36; 12,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,34; 50,05</t>
+          <t>-64,29; 39,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,4; 69,98</t>
+          <t>-77,58; 77,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 10,33</t>
+          <t>-18,05; 10,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 4,75</t>
+          <t>-22,12; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 27,05</t>
+          <t>-11,2; 30,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 9,71</t>
+          <t>-24,35; 9,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 18,48</t>
+          <t>-16,53; 20,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 19,59</t>
+          <t>-17,67; 19,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 7,13</t>
+          <t>-14,74; 6,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 5,93</t>
+          <t>-15,57; 5,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 19,16</t>
+          <t>-8,29; 17,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 36,77</t>
+          <t>-45,29; 35,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 19,67</t>
+          <t>-55,0; 15,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 91,75</t>
+          <t>-29,56; 105,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 27,41</t>
+          <t>-47,91; 28,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 49,12</t>
+          <t>-32,15; 56,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,19; 54,01</t>
+          <t>-34,8; 55,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 20,93</t>
+          <t>-34,83; 18,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 19,07</t>
+          <t>-36,8; 15,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 57,55</t>
+          <t>-20,26; 51,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 12,04</t>
+          <t>-10,79; 12,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 14,92</t>
+          <t>-9,03; 15,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 4,7</t>
+          <t>-17,81; 5,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 29,96</t>
+          <t>-5,19; 30,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 16,1</t>
+          <t>-16,96; 15,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 7,4</t>
+          <t>-21,47; 7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 16,98</t>
+          <t>-3,8; 17,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 10,37</t>
+          <t>-8,18; 11,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 3,82</t>
+          <t>-14,68; 2,98</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 56,92</t>
+          <t>-34,59; 56,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 67,95</t>
+          <t>-28,86; 73,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 23,65</t>
+          <t>-56,61; 28,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 105,17</t>
+          <t>-11,3; 109,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 59,02</t>
+          <t>-36,21; 55,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 25,72</t>
+          <t>-47,49; 28,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 69,22</t>
+          <t>-10,9; 68,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 40,32</t>
+          <t>-22,54; 44,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 15,6</t>
+          <t>-42,65; 12,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 7,83</t>
+          <t>-17,59; 9,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 12,3</t>
+          <t>-12,99; 12,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 0,69</t>
+          <t>-22,25; 1,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 23,55</t>
+          <t>-20,9; 22,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 24,68</t>
+          <t>-14,61; 26,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 13,93</t>
+          <t>-29,78; 12,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 9,23</t>
+          <t>-13,03; 9,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 14,31</t>
+          <t>-8,78; 14,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 4,76</t>
+          <t>-17,09; 5,95</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,04; 37,25</t>
+          <t>-49,49; 43,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,48; 52,16</t>
+          <t>-37,08; 59,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 6,08</t>
+          <t>-63,43; 8,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 115,51</t>
+          <t>-48,56; 113,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 115,04</t>
+          <t>-32,39; 118,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 60,62</t>
+          <t>-64,91; 52,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 38,47</t>
+          <t>-37,09; 37,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 59,86</t>
+          <t>-23,89; 57,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,42; 17,4</t>
+          <t>-48,26; 22,57</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 11,69</t>
+          <t>-24,45; 11,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 18,73</t>
+          <t>-20,47; 17,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 7,6</t>
+          <t>-24,84; 8,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 38,79</t>
+          <t>-33,86; 33,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 45,41</t>
+          <t>-15,05; 47,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 15,43</t>
+          <t>-32,73; 17,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 14,63</t>
+          <t>-16,04; 13,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 23,11</t>
+          <t>-9,89; 23,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 6,28</t>
+          <t>-19,97; 6,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,17; 68,15</t>
+          <t>-64,1; 74,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 100,0</t>
+          <t>-59,01; 97,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 40,44</t>
+          <t>-63,12; 55,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 274,23</t>
+          <t>-60,14; 224,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 268,97</t>
+          <t>-29,73; 292,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 107,69</t>
+          <t>-58,0; 124,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 64,51</t>
+          <t>-44,51; 66,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 105,36</t>
+          <t>-25,71; 108,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,28; 31,22</t>
+          <t>-49,11; 34,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,39</t>
+          <t>-10,58; 2,25</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,3</t>
+          <t>-9,03; 3,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -0,11</t>
+          <t>-13,92; -0,03</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 9,7</t>
+          <t>-8,84; 10,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,88</t>
+          <t>-8,64; 9,98</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 0,16</t>
+          <t>-19,64; -0,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,38</t>
+          <t>-6,71; 4,73</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 3,96</t>
+          <t>-6,86; 3,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,66; -0,45</t>
+          <t>-11,82; -1,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 8,85</t>
+          <t>-32,03; 9,38</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 12,35</t>
+          <t>-27,52; 13,67</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-42,68; -0,51</t>
+          <t>-42,66; 0,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 26,44</t>
+          <t>-19,12; 27,22</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 32,49</t>
+          <t>-19,22; 27,17</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 0,35</t>
+          <t>-44,15; -1,26</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 14,44</t>
+          <t>-18,97; 15,97</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 12,94</t>
+          <t>-19,16; 12,36</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-33,76; -2,12</t>
+          <t>-32,56; -3,69</t>
         </is>
       </c>
     </row>
